--- a/trunk/InventoryApp/InventoryApp.View/Resources/EntradaDesinstalacion.xlsx
+++ b/trunk/InventoryApp/InventoryApp.View/Resources/EntradaDesinstalacion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">DIRECCIÓN </t>
   </si>
@@ -60,12 +60,6 @@
     <t>N° DE SERIE</t>
   </si>
   <si>
-    <t>MODELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPRESA: </t>
-  </si>
-  <si>
     <t>TEL: (55) 36-90-04-00</t>
   </si>
   <si>
@@ -94,6 +88,15 @@
   </si>
   <si>
     <t>TÉCNICO QUE RECIBE:</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>EMPRESA:</t>
   </si>
 </sst>
 </file>
@@ -429,6 +432,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,15 +467,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,34 +891,34 @@
     <row r="5" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="T5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
+      <c r="C6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -936,29 +939,29 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="T8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="25"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="28"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="10"/>
@@ -1045,7 +1048,7 @@
     <row r="11" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" s="9" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1055,28 +1058,28 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="28"/>
       <c r="AH11" s="17"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
@@ -1123,7 +1126,7 @@
     <row r="13" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" s="12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1133,28 +1136,28 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="28"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
@@ -1201,7 +1204,7 @@
     <row r="15" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1211,28 +1214,28 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="28"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
@@ -1289,28 +1292,28 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="28"/>
       <c r="AH17" s="17"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
@@ -1357,7 +1360,7 @@
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1367,28 +1370,28 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="28"/>
       <c r="AH19" s="17"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
@@ -1435,7 +1438,7 @@
     <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" s="12" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1445,28 +1448,28 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="28"/>
       <c r="AH21" s="17"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
@@ -1513,7 +1516,7 @@
     <row r="23" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
       <c r="C23" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -1523,28 +1526,28 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="28"/>
       <c r="AH23" s="17"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
@@ -1591,7 +1594,7 @@
     <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
       <c r="C25" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -1601,28 +1604,28 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="25"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="28"/>
       <c r="AH25" s="17"/>
       <c r="AI25" s="8"/>
       <c r="AJ25" s="8"/>
@@ -1669,7 +1672,7 @@
     <row r="27" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B27" s="16"/>
       <c r="C27" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1679,28 +1682,28 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="25"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="28"/>
       <c r="AH27" s="18"/>
     </row>
     <row r="28" spans="2:40" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,7 +1744,7 @@
     <row r="29" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B29" s="16"/>
       <c r="C29" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1751,28 +1754,28 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="28"/>
       <c r="AH29" s="18"/>
     </row>
     <row r="30" spans="2:40" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -1815,7 +1818,7 @@
     <row r="31" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="16"/>
       <c r="C31" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -1825,28 +1828,28 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="25"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="28"/>
       <c r="AH31" s="18"/>
       <c r="AI31" s="12"/>
     </row>
@@ -1888,7 +1891,7 @@
     <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="16"/>
       <c r="C33" s="12" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -1898,28 +1901,28 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="25"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="28"/>
       <c r="AH33" s="18"/>
     </row>
     <row r="34" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2069,69 +2072,72 @@
       <c r="AH37" s="21"/>
     </row>
     <row r="38" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="31" t="s">
+      <c r="C38" s="25"/>
+      <c r="D38" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="31" t="s">
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="33"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="C6:V6"/>
     <mergeCell ref="W8:AE8"/>
     <mergeCell ref="F8:N8"/>
     <mergeCell ref="L11:AG11"/>
     <mergeCell ref="L13:AG13"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="L25:AG25"/>
-    <mergeCell ref="L31:AG31"/>
-    <mergeCell ref="L33:AG33"/>
     <mergeCell ref="L15:AG15"/>
     <mergeCell ref="L17:AG17"/>
     <mergeCell ref="L19:AG19"/>
     <mergeCell ref="L21:AG21"/>
     <mergeCell ref="L23:AG23"/>
+    <mergeCell ref="D38:V38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="L25:AG25"/>
+    <mergeCell ref="L31:AG31"/>
+    <mergeCell ref="L33:AG33"/>
     <mergeCell ref="L27:AG27"/>
     <mergeCell ref="L29:AG29"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="W38:Z38"/>
     <mergeCell ref="AE38:AH38"/>
-    <mergeCell ref="D38:Z38"/>
-    <mergeCell ref="AA38:AD38"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/InventoryApp/InventoryApp.View/Resources/EntradaDesinstalacion.xlsx
+++ b/trunk/InventoryApp/InventoryApp.View/Resources/EntradaDesinstalacion.xlsx
@@ -69,9 +69,6 @@
     <t>DESTINO:</t>
   </si>
   <si>
-    <t>TRANSPORTE:</t>
-  </si>
-  <si>
     <t>CONTACTO:</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>EMPRESA:</t>
+  </si>
+  <si>
+    <t>MEDIO DE ENVÍO:</t>
   </si>
 </sst>
 </file>
@@ -432,6 +432,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,30 +467,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,28 +897,28 @@
     </row>
     <row r="6" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
+      <c r="C6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -939,29 +939,29 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="T8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="30"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="28"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="25"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="10"/>
@@ -1048,7 +1048,7 @@
     <row r="11" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1058,28 +1058,28 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="25"/>
       <c r="AH11" s="17"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
@@ -1136,28 +1136,28 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="25"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
@@ -1214,28 +1214,28 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="25"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
@@ -1292,28 +1292,28 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="25"/>
       <c r="AH17" s="17"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
@@ -1370,28 +1370,28 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="25"/>
       <c r="AH19" s="17"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
@@ -1438,7 +1438,7 @@
     <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1448,28 +1448,28 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="25"/>
       <c r="AH21" s="17"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
@@ -1516,7 +1516,7 @@
     <row r="23" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
       <c r="C23" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -1526,28 +1526,28 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="28"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="25"/>
       <c r="AH23" s="17"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
@@ -1594,7 +1594,7 @@
     <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
       <c r="C25" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -1604,28 +1604,28 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="28"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="25"/>
       <c r="AH25" s="17"/>
       <c r="AI25" s="8"/>
       <c r="AJ25" s="8"/>
@@ -1672,7 +1672,7 @@
     <row r="27" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B27" s="16"/>
       <c r="C27" s="12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1682,28 +1682,28 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="28"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="25"/>
       <c r="AH27" s="18"/>
     </row>
     <row r="28" spans="2:40" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
     <row r="29" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B29" s="16"/>
       <c r="C29" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1754,28 +1754,28 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="28"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="25"/>
       <c r="AH29" s="18"/>
     </row>
     <row r="30" spans="2:40" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
     <row r="31" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="16"/>
       <c r="C31" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -1828,28 +1828,28 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="28"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="25"/>
       <c r="AH31" s="18"/>
       <c r="AI31" s="12"/>
     </row>
@@ -1901,28 +1901,28 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="28"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="25"/>
       <c r="AH33" s="18"/>
     </row>
     <row r="34" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2072,62 +2072,52 @@
       <c r="AH37" s="21"/>
     </row>
     <row r="38" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="22" t="s">
+      <c r="C38" s="33"/>
+      <c r="D38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="22" t="s">
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="22" t="s">
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AF38" s="23"/>
-      <c r="AG38" s="23"/>
-      <c r="AH38" s="24"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:V6"/>
-    <mergeCell ref="W8:AE8"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="L11:AG11"/>
-    <mergeCell ref="L13:AG13"/>
-    <mergeCell ref="L15:AG15"/>
-    <mergeCell ref="L17:AG17"/>
-    <mergeCell ref="L19:AG19"/>
-    <mergeCell ref="L21:AG21"/>
-    <mergeCell ref="L23:AG23"/>
     <mergeCell ref="D38:V38"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="L25:AG25"/>
@@ -2138,6 +2128,16 @@
     <mergeCell ref="AA38:AD38"/>
     <mergeCell ref="W38:Z38"/>
     <mergeCell ref="AE38:AH38"/>
+    <mergeCell ref="L15:AG15"/>
+    <mergeCell ref="L17:AG17"/>
+    <mergeCell ref="L19:AG19"/>
+    <mergeCell ref="L21:AG21"/>
+    <mergeCell ref="L23:AG23"/>
+    <mergeCell ref="C6:V6"/>
+    <mergeCell ref="W8:AE8"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="L11:AG11"/>
+    <mergeCell ref="L13:AG13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
